--- a/API Files/Acuity Research/Task.xlsx
+++ b/API Files/Acuity Research/Task.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E1E4C78F-91BF-45F1-B693-BB554103B271}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Task" r:id="rId1" sheetId="1"/>
+    <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Task!$A$1:$O$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Task!$A$1:$O$120</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="662">
   <si>
     <t>Status</t>
   </si>
@@ -1966,9 +1965,6 @@
     <t>navpeII__Related_Associations__c&lt;&gt;Theme</t>
   </si>
   <si>
-    <t>CRM1 8842191645</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -2009,12 +2005,15 @@
   </si>
   <si>
     <t>BHEL Special Characters Electricon Special Characters</t>
+  </si>
+  <si>
+    <t>CRM1 884211493</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -2452,99 +2451,99 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2561,10 +2560,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2599,7 +2598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2634,7 +2633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2728,21 +2727,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2759,7 +2758,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2811,40 +2810,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G72" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="44.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="67.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="138.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="67.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="138.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -2891,10 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>649</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -2938,10 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>649</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2985,10 +2978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>649</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -3032,10 +3022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>649</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -3079,10 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>649</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -3123,13 +3107,10 @@
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -3170,13 +3151,10 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -3217,13 +3195,10 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -3264,13 +3239,10 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -3311,13 +3283,10 @@
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -3358,13 +3327,10 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -3408,10 +3374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>649</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>103</v>
       </c>
@@ -3455,10 +3418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>649</v>
-      </c>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>112</v>
       </c>
@@ -3502,10 +3462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>649</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>120</v>
       </c>
@@ -3549,10 +3506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>649</v>
-      </c>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>128</v>
       </c>
@@ -3593,13 +3547,10 @@
         <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>136</v>
       </c>
@@ -3640,13 +3591,10 @@
         <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>143</v>
       </c>
@@ -3687,13 +3635,10 @@
         <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>150</v>
       </c>
@@ -3734,13 +3679,10 @@
         <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>157</v>
       </c>
@@ -3781,13 +3723,10 @@
         <v>111</v>
       </c>
       <c r="O20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>164</v>
       </c>
@@ -3828,13 +3767,10 @@
         <v>111</v>
       </c>
       <c r="O21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>171</v>
       </c>
@@ -3878,10 +3814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>649</v>
-      </c>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>178</v>
       </c>
@@ -3925,10 +3858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>649</v>
-      </c>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -3972,10 +3902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>649</v>
-      </c>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -4019,10 +3946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>649</v>
-      </c>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>197</v>
       </c>
@@ -4063,13 +3987,10 @@
         <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>203</v>
       </c>
@@ -4110,13 +4031,10 @@
         <v>184</v>
       </c>
       <c r="O27" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>208</v>
       </c>
@@ -4157,13 +4075,10 @@
         <v>184</v>
       </c>
       <c r="O28" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>213</v>
       </c>
@@ -4204,13 +4119,10 @@
         <v>184</v>
       </c>
       <c r="O29" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>218</v>
       </c>
@@ -4251,13 +4163,10 @@
         <v>184</v>
       </c>
       <c r="O30" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>223</v>
       </c>
@@ -4298,13 +4207,10 @@
         <v>184</v>
       </c>
       <c r="O31" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>228</v>
       </c>
@@ -4348,10 +4254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>649</v>
-      </c>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>235</v>
       </c>
@@ -4395,10 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>649</v>
-      </c>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>242</v>
       </c>
@@ -4442,10 +4342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>649</v>
-      </c>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>248</v>
       </c>
@@ -4489,10 +4386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>649</v>
-      </c>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>254</v>
       </c>
@@ -4533,13 +4427,10 @@
         <v>241</v>
       </c>
       <c r="O36" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>260</v>
       </c>
@@ -4580,13 +4471,10 @@
         <v>241</v>
       </c>
       <c r="O37" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -4627,13 +4515,10 @@
         <v>241</v>
       </c>
       <c r="O38" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>270</v>
       </c>
@@ -4674,13 +4559,10 @@
         <v>241</v>
       </c>
       <c r="O39" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>275</v>
       </c>
@@ -4721,13 +4603,10 @@
         <v>241</v>
       </c>
       <c r="O40" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>280</v>
       </c>
@@ -4768,13 +4647,10 @@
         <v>241</v>
       </c>
       <c r="O41" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>285</v>
       </c>
@@ -4818,10 +4694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>649</v>
-      </c>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>293</v>
       </c>
@@ -4865,10 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>649</v>
-      </c>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>301</v>
       </c>
@@ -4912,10 +4782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>649</v>
-      </c>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>308</v>
       </c>
@@ -4959,10 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>649</v>
-      </c>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>315</v>
       </c>
@@ -5003,13 +4867,10 @@
         <v>300</v>
       </c>
       <c r="O46" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>322</v>
       </c>
@@ -5050,13 +4911,10 @@
         <v>300</v>
       </c>
       <c r="O47" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>328</v>
       </c>
@@ -5097,13 +4955,10 @@
         <v>300</v>
       </c>
       <c r="O48" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>334</v>
       </c>
@@ -5144,13 +4999,10 @@
         <v>300</v>
       </c>
       <c r="O49" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>340</v>
       </c>
@@ -5191,13 +5043,10 @@
         <v>300</v>
       </c>
       <c r="O50" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>346</v>
       </c>
@@ -5238,13 +5087,10 @@
         <v>300</v>
       </c>
       <c r="O51" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>352</v>
       </c>
@@ -5288,10 +5134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>649</v>
-      </c>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>359</v>
       </c>
@@ -5335,10 +5178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>649</v>
-      </c>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>366</v>
       </c>
@@ -5382,10 +5222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>649</v>
-      </c>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>372</v>
       </c>
@@ -5429,10 +5266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>649</v>
-      </c>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>378</v>
       </c>
@@ -5473,13 +5307,10 @@
         <v>365</v>
       </c>
       <c r="O56" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>384</v>
       </c>
@@ -5520,13 +5351,10 @@
         <v>365</v>
       </c>
       <c r="O57" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>389</v>
       </c>
@@ -5567,13 +5395,10 @@
         <v>365</v>
       </c>
       <c r="O58" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>394</v>
       </c>
@@ -5614,13 +5439,10 @@
         <v>365</v>
       </c>
       <c r="O59" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>399</v>
       </c>
@@ -5661,13 +5483,10 @@
         <v>365</v>
       </c>
       <c r="O60" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>404</v>
       </c>
@@ -5708,13 +5527,10 @@
         <v>365</v>
       </c>
       <c r="O61" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>409</v>
       </c>
@@ -5755,10 +5571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>649</v>
-      </c>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>416</v>
       </c>
@@ -5799,10 +5612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>649</v>
-      </c>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>423</v>
       </c>
@@ -5843,10 +5653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>649</v>
-      </c>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>429</v>
       </c>
@@ -5887,10 +5694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>649</v>
-      </c>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>435</v>
       </c>
@@ -5928,13 +5732,10 @@
         <v>422</v>
       </c>
       <c r="O66" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>441</v>
       </c>
@@ -5972,13 +5773,10 @@
         <v>422</v>
       </c>
       <c r="O67" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>446</v>
       </c>
@@ -6016,13 +5814,10 @@
         <v>422</v>
       </c>
       <c r="O68" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>451</v>
       </c>
@@ -6060,13 +5855,10 @@
         <v>422</v>
       </c>
       <c r="O69" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>456</v>
       </c>
@@ -6104,13 +5896,10 @@
         <v>422</v>
       </c>
       <c r="O70" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>461</v>
       </c>
@@ -6148,13 +5937,10 @@
         <v>422</v>
       </c>
       <c r="O71" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>466</v>
       </c>
@@ -6195,10 +5981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>649</v>
-      </c>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>472</v>
       </c>
@@ -6239,10 +6022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>649</v>
-      </c>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>478</v>
       </c>
@@ -6283,10 +6063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>649</v>
-      </c>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>483</v>
       </c>
@@ -6327,10 +6104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>649</v>
-      </c>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>488</v>
       </c>
@@ -6368,13 +6142,10 @@
         <v>477</v>
       </c>
       <c r="O76" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>493</v>
       </c>
@@ -6412,13 +6183,10 @@
         <v>477</v>
       </c>
       <c r="O77" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>494</v>
       </c>
@@ -6456,13 +6224,10 @@
         <v>477</v>
       </c>
       <c r="O78" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>495</v>
       </c>
@@ -6500,13 +6265,10 @@
         <v>477</v>
       </c>
       <c r="O79" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>496</v>
       </c>
@@ -6544,13 +6306,10 @@
         <v>477</v>
       </c>
       <c r="O80" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>497</v>
       </c>
@@ -6588,18 +6347,15 @@
         <v>477</v>
       </c>
       <c r="O81" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>653</v>
+      </c>
+      <c r="C82" t="s">
         <v>649</v>
-      </c>
-      <c r="B82" t="s">
-        <v>654</v>
-      </c>
-      <c r="C82" t="s">
-        <v>650</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
@@ -6614,21 +6370,18 @@
         <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>649</v>
-      </c>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I83" t="s">
         <v>15</v>
@@ -6643,21 +6396,18 @@
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>649</v>
-      </c>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I84" t="s">
         <v>62</v>
@@ -6672,21 +6422,18 @@
         <v>63</v>
       </c>
       <c r="M84" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O84" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>649</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I85" t="s">
         <v>62</v>
@@ -6701,13 +6448,16 @@
         <v>63</v>
       </c>
       <c r="M85" t="s">
+        <v>660</v>
+      </c>
+      <c r="O85" t="s">
         <v>661</v>
       </c>
-      <c r="O85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>648</v>
+      </c>
       <c r="B86" t="s">
         <v>498</v>
       </c>
@@ -6748,7 +6498,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>648</v>
+      </c>
       <c r="B87" t="s">
         <v>506</v>
       </c>
@@ -6789,7 +6542,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>648</v>
+      </c>
       <c r="B88" t="s">
         <v>513</v>
       </c>
@@ -6830,7 +6586,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>648</v>
+      </c>
       <c r="B89" t="s">
         <v>520</v>
       </c>
@@ -6871,7 +6630,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>648</v>
+      </c>
       <c r="B90" t="s">
         <v>524</v>
       </c>
@@ -6912,7 +6674,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>648</v>
+      </c>
       <c r="B91" t="s">
         <v>528</v>
       </c>
@@ -6953,7 +6718,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>648</v>
+      </c>
       <c r="B92" t="s">
         <v>534</v>
       </c>
@@ -6994,7 +6762,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>648</v>
+      </c>
       <c r="B93" t="s">
         <v>539</v>
       </c>
@@ -7035,7 +6806,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>648</v>
+      </c>
       <c r="B94" t="s">
         <v>544</v>
       </c>
@@ -7076,7 +6850,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>648</v>
+      </c>
       <c r="B95" t="s">
         <v>546</v>
       </c>
@@ -7117,7 +6894,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>648</v>
+      </c>
       <c r="B96" t="s">
         <v>548</v>
       </c>
@@ -7158,7 +6938,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>648</v>
+      </c>
       <c r="B97" t="s">
         <v>553</v>
       </c>
@@ -7199,7 +6982,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
       <c r="B98" t="s">
         <v>558</v>
       </c>
@@ -7240,7 +7026,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>648</v>
+      </c>
       <c r="B99" t="s">
         <v>563</v>
       </c>
@@ -7281,7 +7070,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>648</v>
+      </c>
       <c r="B100" t="s">
         <v>565</v>
       </c>
@@ -7322,7 +7114,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>648</v>
+      </c>
       <c r="B101" t="s">
         <v>567</v>
       </c>
@@ -7363,7 +7158,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>648</v>
+      </c>
       <c r="B102" t="s">
         <v>572</v>
       </c>
@@ -7404,7 +7202,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>648</v>
+      </c>
       <c r="B103" t="s">
         <v>577</v>
       </c>
@@ -7445,7 +7246,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>648</v>
+      </c>
       <c r="B104" t="s">
         <v>582</v>
       </c>
@@ -7486,7 +7290,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>648</v>
+      </c>
       <c r="B105" t="s">
         <v>584</v>
       </c>
@@ -7527,7 +7334,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>648</v>
+      </c>
       <c r="B106" t="s">
         <v>586</v>
       </c>
@@ -7568,7 +7378,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>648</v>
+      </c>
       <c r="B107" t="s">
         <v>591</v>
       </c>
@@ -7609,7 +7422,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>648</v>
+      </c>
       <c r="B108" t="s">
         <v>596</v>
       </c>
@@ -7650,7 +7466,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>648</v>
+      </c>
       <c r="B109" t="s">
         <v>601</v>
       </c>
@@ -7691,7 +7510,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>648</v>
+      </c>
       <c r="B110" t="s">
         <v>603</v>
       </c>
@@ -7732,7 +7554,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>648</v>
+      </c>
       <c r="B111" t="s">
         <v>605</v>
       </c>
@@ -7773,7 +7598,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>648</v>
+      </c>
       <c r="B112" t="s">
         <v>610</v>
       </c>
@@ -7814,7 +7642,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>648</v>
+      </c>
       <c r="B113" t="s">
         <v>615</v>
       </c>
@@ -7855,7 +7686,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>648</v>
+      </c>
       <c r="B114" t="s">
         <v>620</v>
       </c>
@@ -7896,7 +7730,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>648</v>
+      </c>
       <c r="B115" t="s">
         <v>622</v>
       </c>
@@ -7937,7 +7774,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>648</v>
+      </c>
       <c r="B116" t="s">
         <v>624</v>
       </c>
@@ -7978,7 +7818,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>648</v>
+      </c>
       <c r="B117" t="s">
         <v>629</v>
       </c>
@@ -8019,7 +7862,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>648</v>
+      </c>
       <c r="B118" t="s">
         <v>634</v>
       </c>
@@ -8060,7 +7906,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>648</v>
+      </c>
       <c r="B119" t="s">
         <v>639</v>
       </c>
@@ -8101,7 +7950,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>648</v>
+      </c>
       <c r="B120" t="s">
         <v>641</v>
       </c>
@@ -8143,7 +7995,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>